--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3133.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3133.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9197774623324361</v>
+        <v>1.493305087089539</v>
       </c>
       <c r="B1">
-        <v>1.200467446706893</v>
+        <v>1.559166789054871</v>
       </c>
       <c r="C1">
-        <v>1.856049435825573</v>
+        <v>1.749374032020569</v>
       </c>
       <c r="D1">
-        <v>4.643216972254589</v>
+        <v>2.723487854003906</v>
       </c>
       <c r="E1">
-        <v>3.698729626792856</v>
+        <v>4.317018032073975</v>
       </c>
     </row>
   </sheetData>
